--- a/src-tauri/assets/crimping_report_template_4.xlsx
+++ b/src-tauri/assets/crimping_report_template_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Предприятие:</t>
   </si>
@@ -80,12 +80,6 @@
     <t>2.2. Расчет количества операций обжима и технологических сил</t>
   </si>
   <si>
-    <t>Предельный коэффициент обжима</t>
-  </si>
-  <si>
-    <t>Итоговый коэффициент обжима за весь процесс</t>
-  </si>
-  <si>
     <t>Коэффициент деформации</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
     <t>Радиус скругления, гр</t>
   </si>
   <si>
+    <t>Угол b, гр</t>
+  </si>
+  <si>
+    <t>Предельный коэф. обжима, мм</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент обжима для 2-ой операции </t>
   </si>
   <si>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Технологическое усилие на 3-ей операции обжима, тс </t>
   </si>
   <si>
-    <t>2.3.3 Размеры полуфабриката после 3-ей операции обжима</t>
+    <t>2.3.3 Размеры полуфабриката после 3-ой операции обжима</t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент обжима для 4-ой операции </t>
@@ -316,6 +316,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -331,14 +337,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,9 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A85" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -652,124 +652,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
@@ -785,46 +785,46 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
@@ -840,160 +840,134 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="13"/>
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="13"/>
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="13"/>
+      <c r="A26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="13"/>
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
@@ -1010,7 +984,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1022,426 +996,508 @@
       <c r="I47" s="14"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="11"/>
+      <c r="A49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13"/>
       <c r="H49"/>
       <c r="I49"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="73" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="77" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="13"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
@@ -1457,136 +1513,162 @@
       <c r="I93" s="14"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="11"/>
+      <c r="A95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="13"/>
       <c r="H95"/>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="13"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="8"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
@@ -1618,9 +1700,13 @@
       <c r="I120" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="138">
     <mergeCell ref="A104:E104"/>
     <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="F106:G106"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="A100:E100"/>
@@ -1640,46 +1726,45 @@
     <mergeCell ref="F97:G97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="A62:I62"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="F65:G65"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -1688,63 +1773,72 @@
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F81:G81"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A77:I77"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="F80:G80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
